--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2025.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2025.xlsx
@@ -52,7 +52,7 @@
     <x:t>58</x:t>
   </x:si>
   <x:si>
-    <x:t>115</x:t>
+    <x:t>116</x:t>
   </x:si>
   <x:si>
     <x:t>139</x:t>
@@ -70,16 +70,16 @@
     <x:t>78</x:t>
   </x:si>
   <x:si>
-    <x:t>266</x:t>
-  </x:si>
-  <x:si>
-    <x:t>446</x:t>
+    <x:t>267</x:t>
+  </x:si>
+  <x:si>
+    <x:t>445</x:t>
   </x:si>
   <x:si>
     <x:t>633</x:t>
   </x:si>
   <x:si>
-    <x:t>344</x:t>
+    <x:t>345</x:t>
   </x:si>
   <x:si>
     <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
@@ -103,9 +103,6 @@
     <x:t>23</x:t>
   </x:si>
   <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
     <x:t>25</x:t>
   </x:si>
   <x:si>
@@ -115,6 +112,9 @@
     <x:t>35</x:t>
   </x:si>
   <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
     <x:t>68</x:t>
   </x:si>
   <x:si>
@@ -127,7 +127,7 @@
     <x:t>42</x:t>
   </x:si>
   <x:si>
-    <x:t>84</x:t>
+    <x:t>85</x:t>
   </x:si>
   <x:si>
     <x:t>97</x:t>
@@ -139,13 +139,13 @@
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>225</x:t>
-  </x:si>
-  <x:si>
-    <x:t>277</x:t>
+    <x:t>130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>227</x:t>
+  </x:si>
+  <x:si>
+    <x:t>278</x:t>
   </x:si>
   <x:si>
     <x:t>143</x:t>
@@ -184,25 +184,16 @@
     <x:t>Trespass of Real Property</x:t>
   </x:si>
   <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>134</x:t>
+    <x:t>138</x:t>
   </x:si>
   <x:si>
     <x:t>50</x:t>
@@ -740,13 +731,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F6" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="F6" s="1" t="s">
+      <x:c r="G6" s="1" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="G6" s="1" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="H6" s="1" t="s">
         <x:v>15</x:v>
@@ -760,13 +751,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F7" s="1" t="s">
         <x:v>33</x:v>
@@ -873,7 +864,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
         <x:v>23</x:v>
@@ -896,7 +887,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
         <x:v>24</x:v>
@@ -948,10 +939,10 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F14" s="1" t="s">
         <x:v>57</x:v>
-      </x:c>
-      <x:c r="F14" s="1" t="s">
-        <x:v>58</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
         <x:v>51</x:v>
@@ -968,19 +959,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E15" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F15" s="1" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="D15" s="1" t="s">
+      <x:c r="G15" s="1" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="E15" s="1" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="F15" s="1" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="G15" s="1" t="s">
-        <x:v>63</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
         <x:v>15</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2025.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2025.xlsx
@@ -49,154 +49,154 @@
     <x:t>57</x:t>
   </x:si>
   <x:si>
-    <x:t>58</x:t>
+    <x:t>59</x:t>
   </x:si>
   <x:si>
     <x:t>116</x:t>
   </x:si>
   <x:si>
+    <x:t>140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>268</x:t>
+  </x:si>
+  <x:si>
+    <x:t>447</x:t>
+  </x:si>
+  <x:si>
+    <x:t>634</x:t>
+  </x:si>
+  <x:si>
+    <x:t>345</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Disorderly Conduct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Driving Under the Influence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>227</x:t>
+  </x:si>
+  <x:si>
+    <x:t>278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Family Offenses, Nonviolent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Liquor Law Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trespass of Real Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>118</x:t>
+  </x:si>
+  <x:si>
     <x:t>139</x:t>
   </x:si>
   <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Male</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>267</x:t>
-  </x:si>
-  <x:si>
-    <x:t>445</x:t>
-  </x:si>
-  <x:si>
-    <x:t>633</x:t>
-  </x:si>
-  <x:si>
-    <x:t>345</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Disorderly Conduct</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Driving Under the Influence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>130</x:t>
-  </x:si>
-  <x:si>
-    <x:t>227</x:t>
-  </x:si>
-  <x:si>
-    <x:t>278</x:t>
-  </x:si>
-  <x:si>
-    <x:t>143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Family Offenses, Nonviolent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Liquor Law Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trespass of Real Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>138</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
+    <x:t>51</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -734,10 +734,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F6" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G6" s="1" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="G6" s="1" t="s">
-        <x:v>30</x:v>
       </x:c>
       <x:c r="H6" s="1" t="s">
         <x:v>15</x:v>
@@ -751,19 +751,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F7" s="1" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="F7" s="1" t="s">
+      <x:c r="G7" s="1" t="s">
         <x:v>33</x:v>
-      </x:c>
-      <x:c r="G7" s="1" t="s">
-        <x:v>34</x:v>
       </x:c>
       <x:c r="H7" s="1" t="s">
         <x:v>15</x:v>
@@ -771,7 +771,7 @@
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>9</x:v>
@@ -780,16 +780,16 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="E8" s="1" t="s">
+      <x:c r="F8" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="F8" s="1" t="s">
+      <x:c r="G8" s="1" t="s">
         <x:v>38</x:v>
-      </x:c>
-      <x:c r="G8" s="1" t="s">
-        <x:v>39</x:v>
       </x:c>
       <x:c r="H8" s="1" t="s">
         <x:v>15</x:v>
@@ -797,25 +797,25 @@
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="D9" s="1" t="s">
+      <x:c r="E9" s="1" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="E9" s="1" t="s">
+      <x:c r="F9" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="F9" s="1" t="s">
+      <x:c r="G9" s="1" t="s">
         <x:v>43</x:v>
-      </x:c>
-      <x:c r="G9" s="1" t="s">
-        <x:v>44</x:v>
       </x:c>
       <x:c r="H9" s="1" t="s">
         <x:v>15</x:v>
@@ -823,7 +823,7 @@
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>9</x:v>
@@ -832,10 +832,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E10" s="1" t="s">
         <x:v>46</x:v>
-      </x:c>
-      <x:c r="E10" s="1" t="s">
-        <x:v>47</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
         <x:v>23</x:v>
@@ -849,7 +849,7 @@
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>16</x:v>
@@ -861,7 +861,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
         <x:v>25</x:v>
@@ -875,19 +875,19 @@
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="D12" s="1" t="s">
-        <x:v>50</x:v>
-      </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
         <x:v>24</x:v>
@@ -901,25 +901,25 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F13" s="1" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="F13" s="1" t="s">
+      <x:c r="G13" s="1" t="s">
         <x:v>53</x:v>
-      </x:c>
-      <x:c r="G13" s="1" t="s">
-        <x:v>54</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
         <x:v>15</x:v>
@@ -927,7 +927,7 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>9</x:v>
@@ -936,16 +936,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E14" s="1" t="s">
         <x:v>56</x:v>
-      </x:c>
-      <x:c r="E14" s="1" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
         <x:v>57</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
         <x:v>15</x:v>
@@ -953,19 +953,19 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
         <x:v>59</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2025.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2025.xlsx
@@ -46,154 +46,160 @@
     <x:t>Female</x:t>
   </x:si>
   <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>270</x:t>
+  </x:si>
+  <x:si>
+    <x:t>448</x:t>
+  </x:si>
+  <x:si>
+    <x:t>636</x:t>
+  </x:si>
+  <x:si>
+    <x:t>345</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Disorderly Conduct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Driving Under the Influence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>227</x:t>
+  </x:si>
+  <x:si>
+    <x:t>278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Family Offenses, Nonviolent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Liquor Law Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Trespass of Real Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53</x:t>
+  </x:si>
+  <x:si>
     <x:t>57</x:t>
   </x:si>
   <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>116</x:t>
+    <x:t>120</x:t>
   </x:si>
   <x:si>
     <x:t>140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Male</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>268</x:t>
-  </x:si>
-  <x:si>
-    <x:t>447</x:t>
-  </x:si>
-  <x:si>
-    <x:t>634</x:t>
-  </x:si>
-  <x:si>
-    <x:t>345</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Curfew/Loitering/Vagrancy Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Disorderly Conduct</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Driving Under the Influence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>227</x:t>
-  </x:si>
-  <x:si>
-    <x:t>278</x:t>
-  </x:si>
-  <x:si>
-    <x:t>143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Family Offenses, Nonviolent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Liquor Law Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trespass of Real Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>139</x:t>
   </x:si>
   <x:si>
     <x:t>51</x:t>
@@ -734,10 +740,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F6" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G6" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H6" s="1" t="s">
         <x:v>15</x:v>
@@ -751,19 +757,19 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F7" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G7" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H7" s="1" t="s">
         <x:v>15</x:v>
@@ -771,7 +777,7 @@
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>9</x:v>
@@ -780,16 +786,16 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F8" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G8" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H8" s="1" t="s">
         <x:v>15</x:v>
@@ -797,25 +803,25 @@
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F9" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G9" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H9" s="1" t="s">
         <x:v>15</x:v>
@@ -823,7 +829,7 @@
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>9</x:v>
@@ -832,13 +838,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F10" s="1" t="s">
         <x:v>46</x:v>
-      </x:c>
-      <x:c r="F10" s="1" t="s">
-        <x:v>23</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
         <x:v>15</x:v>
@@ -849,7 +855,7 @@
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>16</x:v>
@@ -875,19 +881,19 @@
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
         <x:v>24</x:v>
@@ -901,25 +907,25 @@
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
         <x:v>15</x:v>
@@ -927,7 +933,7 @@
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>9</x:v>
@@ -936,16 +942,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
         <x:v>15</x:v>
@@ -953,25 +959,25 @@
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
         <x:v>15</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2025.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2025.xlsx
@@ -73,7 +73,7 @@
     <x:t>270</x:t>
   </x:si>
   <x:si>
-    <x:t>448</x:t>
+    <x:t>449</x:t>
   </x:si>
   <x:si>
     <x:t>636</x:t>
@@ -130,7 +130,7 @@
     <x:t>85</x:t>
   </x:si>
   <x:si>
-    <x:t>98</x:t>
+    <x:t>99</x:t>
   </x:si>
   <x:si>
     <x:t>67</x:t>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2025.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2025.xlsx
@@ -73,10 +73,10 @@
     <x:t>270</x:t>
   </x:si>
   <x:si>
-    <x:t>449</x:t>
-  </x:si>
-  <x:si>
-    <x:t>636</x:t>
+    <x:t>451</x:t>
+  </x:si>
+  <x:si>
+    <x:t>637</x:t>
   </x:si>
   <x:si>
     <x:t>345</x:t>
@@ -139,7 +139,7 @@
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>133</x:t>
+    <x:t>134</x:t>
   </x:si>
   <x:si>
     <x:t>227</x:t>
@@ -148,7 +148,7 @@
     <x:t>278</x:t>
   </x:si>
   <x:si>
-    <x:t>143</x:t>
+    <x:t>146</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -197,9 +197,6 @@
   </x:si>
   <x:si>
     <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140</x:t>
   </x:si>
   <x:si>
     <x:t>51</x:t>
@@ -974,10 +971,10 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G15" s="1" t="s">
         <x:v>61</x:v>
-      </x:c>
-      <x:c r="G15" s="1" t="s">
-        <x:v>62</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
         <x:v>15</x:v>

--- a/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2025.xlsx
+++ b/store/arrests/ArrestsGroupBByAgeSexDownloadData_ReportYear_2025.xlsx
@@ -46,9 +46,6 @@
     <x:t>Female</x:t>
   </x:si>
   <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
     <x:t>59</x:t>
   </x:si>
   <x:si>
@@ -139,7 +136,7 @@
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>134</x:t>
+    <x:t>135</x:t>
   </x:si>
   <x:si>
     <x:t>227</x:t>
@@ -148,7 +145,7 @@
     <x:t>278</x:t>
   </x:si>
   <x:si>
-    <x:t>146</x:t>
+    <x:t>147</x:t>
   </x:si>
   <x:si>
     <x:t>Family Offenses, Nonviolent</x:t>
@@ -627,19 +624,19 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="E2" s="1" t="s">
+      <x:c r="F2" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="F2" s="1" t="s">
+      <x:c r="G2" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
       <x:c r="H2" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -647,337 +644,337 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C3" s="1" t="s">
+      <x:c r="D3" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="D3" s="1" t="s">
+      <x:c r="E3" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="E3" s="1" t="s">
+      <x:c r="F3" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="F3" s="1" t="s">
+      <x:c r="G3" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="G3" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
       <x:c r="H3" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F4" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H4" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F5" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D5" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E5" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F5" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
       <x:c r="G5" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H5" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D6" s="1" t="s">
+      <x:c r="E6" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F6" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="E6" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="F6" s="1" t="s">
+      <x:c r="G6" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="G6" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
       <x:c r="H6" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="D7" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E7" s="1" t="s">
+      <x:c r="F7" s="1" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="F7" s="1" t="s">
+      <x:c r="G7" s="1" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="G7" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
       <x:c r="H7" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="E8" s="1" t="s">
+      <x:c r="F8" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="F8" s="1" t="s">
+      <x:c r="G8" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="G8" s="1" t="s">
-        <x:v>39</x:v>
-      </x:c>
       <x:c r="H8" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="D9" s="1" t="s">
+      <x:c r="E9" s="1" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="E9" s="1" t="s">
+      <x:c r="F9" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="F9" s="1" t="s">
+      <x:c r="G9" s="1" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="G9" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
       <x:c r="H9" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E10" s="1" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="E10" s="1" t="s">
-        <x:v>47</x:v>
-      </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F11" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G11" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H11" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="D12" s="1" t="s">
-        <x:v>50</x:v>
-      </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F12" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G12" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H12" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E13" s="1" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D13" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E13" s="1" t="s">
+      <x:c r="F13" s="1" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="F13" s="1" t="s">
+      <x:c r="G13" s="1" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="G13" s="1" t="s">
-        <x:v>54</x:v>
-      </x:c>
       <x:c r="H13" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E14" s="1" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="E14" s="1" t="s">
+      <x:c r="F14" s="1" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="F14" s="1" t="s">
-        <x:v>58</x:v>
-      </x:c>
       <x:c r="G14" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E15" s="1" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="E15" s="1" t="s">
+      <x:c r="F15" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G15" s="1" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="F15" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G15" s="1" t="s">
-        <x:v>61</x:v>
-      </x:c>
       <x:c r="H15" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
